--- a/MainUnit/Redux/TeenAstro_Redux__Main_Board_v2.6.4__5_PnP.xlsx
+++ b/MainUnit/Redux/TeenAstro_Redux__Main_Board_v2.6.4__5_PnP.xlsx
@@ -91,7 +91,7 @@
     <t>-20.25mm</t>
   </si>
   <si>
-    <t>CN41</t>
+    <t>CN2</t>
   </si>
   <si>
     <t>USB_C</t>
@@ -115,7 +115,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>D53</t>
+    <t>D3</t>
   </si>
   <si>
     <t>RB751V40T1G</t>
@@ -133,7 +133,7 @@
     <t>38.578mm</t>
   </si>
   <si>
-    <t>D51</t>
+    <t>D4</t>
   </si>
   <si>
     <t>P6SMB30CA_C80384</t>
@@ -157,7 +157,7 @@
     <t>P6SMB30CA</t>
   </si>
   <si>
-    <t>B51</t>
+    <t>B1</t>
   </si>
   <si>
     <t>CR1220-2</t>
@@ -181,7 +181,7 @@
     <t>ML1220</t>
   </si>
   <si>
-    <t>Q51</t>
+    <t>Q1</t>
   </si>
   <si>
     <t>DMP3013SFV-7</t>
@@ -202,1063 +202,1063 @@
     <t>39mm</t>
   </si>
   <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>17.25mm</t>
+  </si>
+  <si>
+    <t>23.25mm</t>
+  </si>
+  <si>
+    <t>16.55mm</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>0402WGF220JTCE</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>-14.75mm</t>
+  </si>
+  <si>
+    <t>42.25mm</t>
+  </si>
+  <si>
+    <t>41.817mm</t>
+  </si>
+  <si>
+    <t>22Ω</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>-15mm</t>
+  </si>
+  <si>
+    <t>43.5mm</t>
+  </si>
+  <si>
+    <t>-15.433mm</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>0402WGF1002TCE</t>
+  </si>
+  <si>
+    <t>-13.75mm</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>23.5mm</t>
+  </si>
+  <si>
+    <t>41mm</t>
+  </si>
+  <si>
+    <t>41.433mm</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>CL05B104KO5NNNC</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>14.2mm</t>
+  </si>
+  <si>
+    <t>22.5mm</t>
+  </si>
+  <si>
+    <t>13.655mm</t>
+  </si>
+  <si>
+    <t>MOT1</t>
+  </si>
+  <si>
+    <t>DB125-3.5-4P-GN-S</t>
+  </si>
+  <si>
+    <t>CONN-TH_DB125-3.5-4P-GN</t>
+  </si>
+  <si>
+    <t>-13.25mm</t>
+  </si>
+  <si>
+    <t>2.75mm</t>
+  </si>
+  <si>
+    <t>-18.5mm</t>
+  </si>
+  <si>
+    <t>RA/AZ</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>-14mm</t>
+  </si>
+  <si>
+    <t>22.75mm</t>
+  </si>
+  <si>
+    <t>-14.545mm</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>1277AS-H-4R7M=P2_C237389</t>
+  </si>
+  <si>
+    <t>L1210</t>
+  </si>
+  <si>
+    <t>12.25mm</t>
+  </si>
+  <si>
+    <t>31.25mm</t>
+  </si>
+  <si>
+    <t>29.547mm</t>
+  </si>
+  <si>
+    <t>4.7uH</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>-11.45mm</t>
+  </si>
+  <si>
+    <t>-10.75mm</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>24.75mm</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>Power_Switch</t>
+  </si>
+  <si>
+    <t>Power_switch</t>
+  </si>
+  <si>
+    <t>21.98mm</t>
+  </si>
+  <si>
+    <t>48.75mm</t>
+  </si>
+  <si>
+    <t>53.83mm</t>
+  </si>
+  <si>
+    <t>4US1R102M7RN</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>DC005-T25</t>
+  </si>
+  <si>
+    <t>DC-IN-TH_DC-005-20A-1</t>
+  </si>
+  <si>
+    <t>9.75mm</t>
+  </si>
+  <si>
+    <t>47mm</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t>44mm</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>LQW18AN47NJ00D</t>
+  </si>
+  <si>
+    <t>IND-SMD_L1.6-W0.8-1</t>
+  </si>
+  <si>
+    <t>-5.75mm</t>
+  </si>
+  <si>
+    <t>37.75mm</t>
+  </si>
+  <si>
+    <t>37.05mm</t>
+  </si>
+  <si>
+    <t>47nH</t>
+  </si>
+  <si>
+    <t>AUX</t>
+  </si>
+  <si>
+    <t>HEAD2</t>
+  </si>
+  <si>
+    <t>HDR-TH_2P-P2.54-V-M</t>
+  </si>
+  <si>
+    <t>23mm</t>
+  </si>
+  <si>
+    <t>25.75mm</t>
+  </si>
+  <si>
+    <t>24.27mm</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>BAV99S,115</t>
+  </si>
+  <si>
+    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
+  </si>
+  <si>
+    <t>-19.9mm</t>
+  </si>
+  <si>
+    <t>45.048mm</t>
+  </si>
+  <si>
+    <t>-20.82mm</t>
+  </si>
+  <si>
+    <t>45.698mm</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>-14.625mm</t>
+  </si>
+  <si>
+    <t>45.375mm</t>
+  </si>
+  <si>
+    <t>-15.545mm</t>
+  </si>
+  <si>
+    <t>46.025mm</t>
+  </si>
+  <si>
+    <t>CN1</t>
+  </si>
+  <si>
+    <t>PJ-327E-SMT</t>
+  </si>
+  <si>
+    <t>AUDIO-SMD_PJ-327E-SMT</t>
+  </si>
+  <si>
+    <t>-7.5mm</t>
+  </si>
+  <si>
+    <t>-3.25mm</t>
+  </si>
+  <si>
+    <t>44.65mm</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>ESP-01</t>
+  </si>
+  <si>
+    <t>WIFIM-TH_8P-L24.7-W14.4-P2.54</t>
+  </si>
+  <si>
+    <t>3.75mm</t>
+  </si>
+  <si>
+    <t>48mm</t>
+  </si>
+  <si>
+    <t>2.48mm</t>
+  </si>
+  <si>
+    <t>44.19mm</t>
+  </si>
+  <si>
+    <t>Debug</t>
+  </si>
+  <si>
+    <t>MOT2</t>
+  </si>
+  <si>
+    <t>13.25mm</t>
+  </si>
+  <si>
+    <t>8mm</t>
+  </si>
+  <si>
+    <t>DEC/ALT</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>DZ254R-22-08-63</t>
+  </si>
+  <si>
+    <t>HDR-TH_8P-P2.54-V-M-R2-C4-S2.54</t>
+  </si>
+  <si>
+    <t>0mm</t>
+  </si>
+  <si>
+    <t>3.5mm</t>
+  </si>
+  <si>
+    <t>3.81mm</t>
+  </si>
+  <si>
+    <t>4.77mm</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>0603WAF3001T5E</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>-10.25mm</t>
+  </si>
+  <si>
+    <t>31.5mm</t>
+  </si>
+  <si>
+    <t>30.747mm</t>
+  </si>
+  <si>
+    <t>3kΩ</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>0603WAF1501T5E</t>
+  </si>
+  <si>
+    <t>-9mm</t>
+  </si>
+  <si>
+    <t>32.253mm</t>
+  </si>
+  <si>
+    <t>1.5kΩ</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>28.25mm</t>
+  </si>
+  <si>
+    <t>29.003mm</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>27.497mm</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>-12.75mm</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>-7.75mm</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>CL10A106KP8NNNC</t>
+  </si>
+  <si>
+    <t>2.25mm</t>
+  </si>
+  <si>
+    <t>7.5mm</t>
+  </si>
+  <si>
+    <t>2.95mm</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>XC6701D502PR-G</t>
+  </si>
+  <si>
+    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
+  </si>
+  <si>
+    <t>11mm</t>
+  </si>
+  <si>
+    <t>1.5mm</t>
+  </si>
+  <si>
+    <t>12.356mm</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>0603WAF5602T5E</t>
+  </si>
+  <si>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>26.997mm</t>
+  </si>
+  <si>
+    <t>56kΩ</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>0603WAF5101T5E</t>
+  </si>
+  <si>
+    <t>-22.25mm</t>
+  </si>
+  <si>
+    <t>45mm</t>
+  </si>
+  <si>
+    <t>44.247mm</t>
+  </si>
+  <si>
+    <t>5.1kΩ</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>-17mm</t>
+  </si>
+  <si>
+    <t>45.753mm</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>KT-0603R</t>
+  </si>
+  <si>
+    <t>LED0603-RD</t>
+  </si>
+  <si>
+    <t>-0.25mm</t>
+  </si>
+  <si>
+    <t>52.75mm</t>
+  </si>
+  <si>
+    <t>-0.253mm</t>
+  </si>
+  <si>
+    <t>53.549mm</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>8.73mm</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>CL10C101JB8NNNC</t>
+  </si>
+  <si>
+    <t>7.25mm</t>
+  </si>
+  <si>
+    <t>27.05mm</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>CL21B224KBFNNNE</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>-11mm</t>
+  </si>
+  <si>
+    <t>21.8mm</t>
+  </si>
+  <si>
+    <t>-10mm</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>21.75mm</t>
+  </si>
+  <si>
+    <t>18.25mm</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>CL21A226MAQNNNE</t>
+  </si>
+  <si>
+    <t>32mm</t>
+  </si>
+  <si>
+    <t>33.03mm</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>KT-0603W</t>
+  </si>
+  <si>
+    <t>LED0603-R-RD_WHITE</t>
+  </si>
+  <si>
+    <t>18mm</t>
+  </si>
+  <si>
+    <t>53.601mm</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>0603WAF3303T5E</t>
+  </si>
+  <si>
+    <t>20mm</t>
+  </si>
+  <si>
+    <t>39.25mm</t>
+  </si>
+  <si>
+    <t>40.003mm</t>
+  </si>
+  <si>
+    <t>330kΩ</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>EEEHAV101XAP</t>
+  </si>
+  <si>
+    <t>CAP-SMD_BD6.3-L6.6-W6.6-FD</t>
+  </si>
+  <si>
+    <t>-3.5mm</t>
+  </si>
+  <si>
+    <t>19.92mm</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
     <t>C21</t>
   </si>
   <si>
-    <t>CC0603KRX7R9BB104</t>
-  </si>
-  <si>
-    <t>C0603</t>
-  </si>
-  <si>
-    <t>17.25mm</t>
-  </si>
-  <si>
-    <t>23.25mm</t>
-  </si>
-  <si>
-    <t>16.55mm</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>0402WGF220JTCE</t>
-  </si>
-  <si>
-    <t>R0402</t>
-  </si>
-  <si>
-    <t>-14.75mm</t>
-  </si>
-  <si>
-    <t>42.25mm</t>
-  </si>
-  <si>
-    <t>41.817mm</t>
-  </si>
-  <si>
-    <t>22Ω</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>-15mm</t>
-  </si>
-  <si>
-    <t>43.5mm</t>
-  </si>
-  <si>
-    <t>-15.433mm</t>
-  </si>
-  <si>
-    <t>R45</t>
-  </si>
-  <si>
-    <t>0402WGF1002TCE</t>
-  </si>
-  <si>
-    <t>-13.75mm</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>R51</t>
-  </si>
-  <si>
-    <t>23.5mm</t>
-  </si>
-  <si>
-    <t>41mm</t>
-  </si>
-  <si>
-    <t>41.433mm</t>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>RTT12R075FTP</t>
+  </si>
+  <si>
+    <t>R1210</t>
+  </si>
+  <si>
+    <t>-23.5mm</t>
+  </si>
+  <si>
+    <t>-22.059mm</t>
+  </si>
+  <si>
+    <t>75mΩ</t>
+  </si>
+  <si>
+    <t>R23</t>
+  </si>
+  <si>
+    <t>-5mm</t>
+  </si>
+  <si>
+    <t>-6.441mm</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>6.441mm</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>22.059mm</t>
+  </si>
+  <si>
+    <t>ANT1</t>
+  </si>
+  <si>
+    <t>BWGNSCNX20-20W4</t>
+  </si>
+  <si>
+    <t>ANT-TH_BWGNSCNX20-20W4</t>
+  </si>
+  <si>
+    <t>35.5mm</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>SMD1812P300SLR/24</t>
+  </si>
+  <si>
+    <t>F1812</t>
+  </si>
+  <si>
+    <t>16.5mm</t>
+  </si>
+  <si>
+    <t>29.195mm</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>16mm</t>
+  </si>
+  <si>
+    <t>36.5mm</t>
+  </si>
+  <si>
+    <t>14.5mm</t>
+  </si>
+  <si>
+    <t>37.475mm</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)_C88374</t>
+  </si>
+  <si>
+    <t>RF-SMD_FRF05002-JSS103M</t>
+  </si>
+  <si>
+    <t>36.512mm</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(80)</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>23.75mm</t>
+  </si>
+  <si>
+    <t>-13.455mm</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>41.705mm</t>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>26mm</t>
+  </si>
+  <si>
+    <t>26.7mm</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>9.5mm</t>
+  </si>
+  <si>
+    <t>29.25mm</t>
+  </si>
+  <si>
+    <t>8.955mm</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>0603WAF1003T5E</t>
+  </si>
+  <si>
+    <t>24mm</t>
+  </si>
+  <si>
+    <t>38.5mm</t>
+  </si>
+  <si>
+    <t>39.253mm</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>MICROMOD-Teensy4</t>
+  </si>
+  <si>
+    <t>M.2-CONNECTOR-E</t>
+  </si>
+  <si>
+    <t>-23mm</t>
+  </si>
+  <si>
+    <t>21.65mm</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>ATGM336H-5N31</t>
+  </si>
+  <si>
+    <t>GPSM-SMD_ATGM336H-TR</t>
+  </si>
+  <si>
+    <t>1mm</t>
+  </si>
+  <si>
+    <t>37mm</t>
+  </si>
+  <si>
+    <t>5.811mm</t>
+  </si>
+  <si>
+    <t>32.6mm</t>
+  </si>
+  <si>
+    <t>MX1</t>
+  </si>
+  <si>
+    <t>SMTSO3030CTJ</t>
+  </si>
+  <si>
+    <t>SMD_BD5.6-D4.1</t>
+  </si>
+  <si>
+    <t>28mm</t>
+  </si>
+  <si>
+    <t>3.602mm</t>
+  </si>
+  <si>
+    <t>26.35mm</t>
+  </si>
+  <si>
+    <t>Plot M.2</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>0603WAF1802T5E</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>24.5mm</t>
+  </si>
+  <si>
+    <t>18kΩ</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CL05A105KA5NQNC</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>CL31A106KBHNNNE</t>
+  </si>
+  <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>-0.5mm</t>
+  </si>
+  <si>
+    <t>44.75mm</t>
+  </si>
+  <si>
+    <t>43.157mm</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>0603WAF1001T5E</t>
+  </si>
+  <si>
+    <t>50mm</t>
+  </si>
+  <si>
+    <t>50.753mm</t>
+  </si>
+  <si>
+    <t>1kΩ</t>
+  </si>
+  <si>
+    <t>C9</t>
   </si>
   <si>
     <t>C24</t>
   </si>
   <si>
-    <t>CL05B104KO5NNNC</t>
-  </si>
-  <si>
-    <t>C0402</t>
-  </si>
-  <si>
-    <t>14.2mm</t>
-  </si>
-  <si>
-    <t>22.5mm</t>
-  </si>
-  <si>
-    <t>13.655mm</t>
-  </si>
-  <si>
-    <t>MOT1</t>
-  </si>
-  <si>
-    <t>DB125-3.5-4P-GN-S</t>
-  </si>
-  <si>
-    <t>CONN-TH_DB125-3.5-4P-GN</t>
-  </si>
-  <si>
-    <t>-13.25mm</t>
-  </si>
-  <si>
-    <t>2.75mm</t>
-  </si>
-  <si>
-    <t>-18.5mm</t>
-  </si>
-  <si>
-    <t>RA/AZ</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>-14mm</t>
-  </si>
-  <si>
-    <t>22.75mm</t>
-  </si>
-  <si>
-    <t>-14.545mm</t>
-  </si>
-  <si>
-    <t>L42</t>
-  </si>
-  <si>
-    <t>1277AS-H-4R7M=P2_C237389</t>
-  </si>
-  <si>
-    <t>L1210</t>
-  </si>
-  <si>
-    <t>12.25mm</t>
-  </si>
-  <si>
-    <t>31.25mm</t>
-  </si>
-  <si>
-    <t>29.547mm</t>
-  </si>
-  <si>
-    <t>4.7uH</t>
+    <t>21.5mm</t>
+  </si>
+  <si>
+    <t>14.745mm</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>-11.45mm</t>
-  </si>
-  <si>
-    <t>-10.75mm</t>
-  </si>
-  <si>
-    <t>R54</t>
-  </si>
-  <si>
-    <t>24.75mm</t>
-  </si>
-  <si>
-    <t>PS1</t>
-  </si>
-  <si>
-    <t>Power_Switch</t>
-  </si>
-  <si>
-    <t>Power_switch</t>
-  </si>
-  <si>
-    <t>21.98mm</t>
-  </si>
-  <si>
-    <t>48.75mm</t>
-  </si>
-  <si>
-    <t>53.83mm</t>
-  </si>
-  <si>
-    <t>4US1R102M7RN</t>
-  </si>
-  <si>
-    <t>DC1</t>
-  </si>
-  <si>
-    <t>DC005-T25</t>
-  </si>
-  <si>
-    <t>DC-IN-TH_DC-005-20A-1</t>
-  </si>
-  <si>
-    <t>9.75mm</t>
-  </si>
-  <si>
-    <t>47mm</t>
-  </si>
-  <si>
-    <t>12mm</t>
-  </si>
-  <si>
-    <t>44mm</t>
-  </si>
-  <si>
-    <t>L41</t>
-  </si>
-  <si>
-    <t>LQW18AN47NJ00D</t>
-  </si>
-  <si>
-    <t>IND-SMD_L1.6-W0.8-1</t>
-  </si>
-  <si>
-    <t>-5.75mm</t>
-  </si>
-  <si>
-    <t>37.75mm</t>
-  </si>
-  <si>
-    <t>37.05mm</t>
-  </si>
-  <si>
-    <t>47nH</t>
-  </si>
-  <si>
-    <t>AUX</t>
-  </si>
-  <si>
-    <t>HEAD2</t>
-  </si>
-  <si>
-    <t>HDR-TH_2P-P2.54-V-M</t>
-  </si>
-  <si>
-    <t>23mm</t>
-  </si>
-  <si>
-    <t>25.75mm</t>
-  </si>
-  <si>
-    <t>24.27mm</t>
-  </si>
-  <si>
-    <t>D40</t>
-  </si>
-  <si>
-    <t>BAV99S,115</t>
-  </si>
-  <si>
-    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
-  </si>
-  <si>
-    <t>-19.9mm</t>
-  </si>
-  <si>
-    <t>45.048mm</t>
-  </si>
-  <si>
-    <t>-20.82mm</t>
-  </si>
-  <si>
-    <t>45.698mm</t>
-  </si>
-  <si>
-    <t>D41</t>
-  </si>
-  <si>
-    <t>-14.625mm</t>
-  </si>
-  <si>
-    <t>45.375mm</t>
-  </si>
-  <si>
-    <t>-15.545mm</t>
-  </si>
-  <si>
-    <t>46.025mm</t>
-  </si>
-  <si>
-    <t>CN42</t>
-  </si>
-  <si>
-    <t>PJ-327E-SMT</t>
-  </si>
-  <si>
-    <t>AUDIO-SMD_PJ-327E-SMT</t>
-  </si>
-  <si>
-    <t>-7.5mm</t>
-  </si>
-  <si>
-    <t>-3.25mm</t>
-  </si>
-  <si>
-    <t>44.65mm</t>
-  </si>
-  <si>
-    <t>U52</t>
-  </si>
-  <si>
-    <t>ESP-01</t>
-  </si>
-  <si>
-    <t>WIFIM-TH_8P-L24.7-W14.4-P2.54</t>
-  </si>
-  <si>
-    <t>3.75mm</t>
-  </si>
-  <si>
-    <t>48mm</t>
-  </si>
-  <si>
-    <t>2.48mm</t>
-  </si>
-  <si>
-    <t>44.19mm</t>
-  </si>
-  <si>
-    <t>Debug</t>
-  </si>
-  <si>
-    <t>MOT2</t>
-  </si>
-  <si>
-    <t>13.25mm</t>
-  </si>
-  <si>
-    <t>8mm</t>
-  </si>
-  <si>
-    <t>DEC/ALT</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>DZ254R-22-08-63</t>
-  </si>
-  <si>
-    <t>HDR-TH_8P-P2.54-V-M-R2-C4-S2.54</t>
-  </si>
-  <si>
-    <t>0mm</t>
-  </si>
-  <si>
-    <t>3.5mm</t>
-  </si>
-  <si>
-    <t>3.81mm</t>
-  </si>
-  <si>
-    <t>4.77mm</t>
-  </si>
-  <si>
-    <t>R62</t>
-  </si>
-  <si>
-    <t>0603WAF3001T5E</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>-10.25mm</t>
-  </si>
-  <si>
-    <t>31.5mm</t>
-  </si>
-  <si>
-    <t>30.747mm</t>
-  </si>
-  <si>
-    <t>3kΩ</t>
-  </si>
-  <si>
-    <t>R63</t>
-  </si>
-  <si>
-    <t>0603WAF1501T5E</t>
-  </si>
-  <si>
-    <t>-9mm</t>
-  </si>
-  <si>
-    <t>32.253mm</t>
-  </si>
-  <si>
-    <t>1.5kΩ</t>
-  </si>
-  <si>
-    <t>R64</t>
-  </si>
-  <si>
-    <t>28.25mm</t>
-  </si>
-  <si>
-    <t>29.003mm</t>
-  </si>
-  <si>
-    <t>R65</t>
-  </si>
-  <si>
-    <t>27.497mm</t>
-  </si>
-  <si>
-    <t>R66</t>
-  </si>
-  <si>
-    <t>-12.75mm</t>
-  </si>
-  <si>
-    <t>R67</t>
-  </si>
-  <si>
-    <t>R68</t>
-  </si>
-  <si>
-    <t>R69</t>
-  </si>
-  <si>
-    <t>-7.75mm</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>CL10A106KP8NNNC</t>
-  </si>
-  <si>
-    <t>2.25mm</t>
-  </si>
-  <si>
-    <t>7.5mm</t>
-  </si>
-  <si>
-    <t>2.95mm</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>U56</t>
-  </si>
-  <si>
-    <t>XC6701D502PR-G</t>
-  </si>
-  <si>
-    <t>SOT-89-3_L4.5-W2.5-P1.50-LS4.2-BR</t>
-  </si>
-  <si>
-    <t>11mm</t>
-  </si>
-  <si>
-    <t>1.5mm</t>
-  </si>
-  <si>
-    <t>12.356mm</t>
-  </si>
-  <si>
-    <t>R71</t>
-  </si>
-  <si>
-    <t>0603WAF5602T5E</t>
-  </si>
-  <si>
-    <t>6mm</t>
-  </si>
-  <si>
-    <t>26.997mm</t>
-  </si>
-  <si>
-    <t>56kΩ</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>0603WAF5101T5E</t>
-  </si>
-  <si>
-    <t>-22.25mm</t>
-  </si>
-  <si>
-    <t>45mm</t>
-  </si>
-  <si>
-    <t>44.247mm</t>
-  </si>
-  <si>
-    <t>5.1kΩ</t>
-  </si>
-  <si>
-    <t>R44</t>
-  </si>
-  <si>
-    <t>-17mm</t>
-  </si>
-  <si>
-    <t>45.753mm</t>
-  </si>
-  <si>
-    <t>LED2</t>
-  </si>
-  <si>
-    <t>KT-0603R</t>
-  </si>
-  <si>
-    <t>LED0603-RD</t>
-  </si>
-  <si>
-    <t>-0.25mm</t>
-  </si>
-  <si>
-    <t>52.75mm</t>
-  </si>
-  <si>
-    <t>-0.253mm</t>
-  </si>
-  <si>
-    <t>53.549mm</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>10mm</t>
-  </si>
-  <si>
-    <t>8.73mm</t>
-  </si>
-  <si>
-    <t>C98</t>
-  </si>
-  <si>
-    <t>CL10C101JB8NNNC</t>
-  </si>
-  <si>
-    <t>7.25mm</t>
-  </si>
-  <si>
-    <t>27.05mm</t>
-  </si>
-  <si>
-    <t>100pF</t>
+    <t>CL10B474KA8NNNC</t>
+  </si>
+  <si>
+    <t>-22.75mm</t>
+  </si>
+  <si>
+    <t>7.75mm</t>
+  </si>
+  <si>
+    <t>-22.05mm</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>5.75mm</t>
+  </si>
+  <si>
+    <t>6.45mm</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNE</t>
+  </si>
+  <si>
+    <t>27.25mm</t>
+  </si>
+  <si>
+    <t>17.53mm</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>-21.5mm</t>
+  </si>
+  <si>
+    <t>19.75mm</t>
+  </si>
+  <si>
+    <t>-19.907mm</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>-5.5mm</t>
+  </si>
+  <si>
+    <t>21.657mm</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>1.907mm</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>19.907mm</t>
   </si>
   <si>
     <t>C17</t>
   </si>
   <si>
-    <t>CL21B224KBFNNNE</t>
-  </si>
-  <si>
-    <t>C0805</t>
-  </si>
-  <si>
-    <t>-11mm</t>
-  </si>
-  <si>
-    <t>21.8mm</t>
-  </si>
-  <si>
-    <t>-10mm</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>21.75mm</t>
-  </si>
-  <si>
-    <t>18.25mm</t>
-  </si>
-  <si>
-    <t>C96</t>
-  </si>
-  <si>
-    <t>CL21A226MAQNNNE</t>
-  </si>
-  <si>
-    <t>32mm</t>
-  </si>
-  <si>
-    <t>33.03mm</t>
-  </si>
-  <si>
-    <t>22uF</t>
-  </si>
-  <si>
-    <t>C97</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>KT-0603W</t>
-  </si>
-  <si>
-    <t>LED0603-R-RD_WHITE</t>
-  </si>
-  <si>
-    <t>18mm</t>
-  </si>
-  <si>
-    <t>53.601mm</t>
-  </si>
-  <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>0603WAF3303T5E</t>
-  </si>
-  <si>
-    <t>20mm</t>
-  </si>
-  <si>
-    <t>39.25mm</t>
-  </si>
-  <si>
-    <t>40.003mm</t>
-  </si>
-  <si>
-    <t>330kΩ</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>EEEHAV101XAP</t>
-  </si>
-  <si>
-    <t>CAP-SMD_BD6.3-L6.6-W6.6-FD</t>
-  </si>
-  <si>
-    <t>-3.5mm</t>
-  </si>
-  <si>
-    <t>19.92mm</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>RTT12R075FTP</t>
-  </si>
-  <si>
-    <t>R1210</t>
-  </si>
-  <si>
-    <t>-23.5mm</t>
-  </si>
-  <si>
-    <t>-22.059mm</t>
-  </si>
-  <si>
-    <t>75mΩ</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>-5mm</t>
-  </si>
-  <si>
-    <t>-6.441mm</t>
+    <t>16.75mm</t>
+  </si>
+  <si>
+    <t>25.25mm</t>
+  </si>
+  <si>
+    <t>18.343mm</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>BZT52C12_C173429</t>
+  </si>
+  <si>
+    <t>SOD-123_L2.7-W1.6-LS3.7-RD</t>
+  </si>
+  <si>
+    <t>22mm</t>
+  </si>
+  <si>
+    <t>37.365mm</t>
+  </si>
+  <si>
+    <t>BZT52C12</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>0603WAF100JT5E</t>
+  </si>
+  <si>
+    <t>-20.097mm</t>
+  </si>
+  <si>
+    <t>-19.343mm</t>
+  </si>
+  <si>
+    <t>10Ω</t>
   </si>
   <si>
     <t>R22</t>
   </si>
   <si>
-    <t>5mm</t>
-  </si>
-  <si>
-    <t>6.441mm</t>
-  </si>
-  <si>
-    <t>R24</t>
-  </si>
-  <si>
-    <t>22.059mm</t>
-  </si>
-  <si>
-    <t>ANT1</t>
-  </si>
-  <si>
-    <t>BWGNSCNX20-20W4</t>
-  </si>
-  <si>
-    <t>ANT-TH_BWGNSCNX20-20W4</t>
-  </si>
-  <si>
-    <t>35.5mm</t>
-  </si>
-  <si>
-    <t>F51</t>
-  </si>
-  <si>
-    <t>SMD1812P300SLR/24</t>
-  </si>
-  <si>
-    <t>F1812</t>
-  </si>
-  <si>
-    <t>16.5mm</t>
-  </si>
-  <si>
-    <t>29.195mm</t>
-  </si>
-  <si>
-    <t>Q52</t>
-  </si>
-  <si>
-    <t>16mm</t>
-  </si>
-  <si>
-    <t>36.5mm</t>
-  </si>
-  <si>
-    <t>14.5mm</t>
-  </si>
-  <si>
-    <t>37.475mm</t>
-  </si>
-  <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1(80)_C88374</t>
-  </si>
-  <si>
-    <t>RF-SMD_FRF05002-JSS103M</t>
-  </si>
-  <si>
-    <t>36.512mm</t>
-  </si>
-  <si>
-    <t>U.FL-R-SMT-1(80)</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>23.75mm</t>
-  </si>
-  <si>
-    <t>-13.455mm</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>41.705mm</t>
-  </si>
-  <si>
-    <t>C100</t>
-  </si>
-  <si>
-    <t>26mm</t>
-  </si>
-  <si>
-    <t>26.7mm</t>
-  </si>
-  <si>
-    <t>C95</t>
-  </si>
-  <si>
-    <t>9.5mm</t>
-  </si>
-  <si>
-    <t>29.25mm</t>
-  </si>
-  <si>
-    <t>8.955mm</t>
-  </si>
-  <si>
-    <t>R53</t>
-  </si>
-  <si>
-    <t>0603WAF1003T5E</t>
-  </si>
-  <si>
-    <t>24mm</t>
-  </si>
-  <si>
-    <t>38.5mm</t>
-  </si>
-  <si>
-    <t>39.253mm</t>
-  </si>
-  <si>
-    <t>100kΩ</t>
-  </si>
-  <si>
-    <t>U40</t>
-  </si>
-  <si>
-    <t>MICROMOD-Teensy4</t>
-  </si>
-  <si>
-    <t>M.2-CONNECTOR-E</t>
-  </si>
-  <si>
-    <t>-23mm</t>
-  </si>
-  <si>
-    <t>21.65mm</t>
-  </si>
-  <si>
-    <t>U41</t>
-  </si>
-  <si>
-    <t>ATGM336H-5N31</t>
-  </si>
-  <si>
-    <t>GPSM-SMD_ATGM336H-TR</t>
-  </si>
-  <si>
-    <t>1mm</t>
-  </si>
-  <si>
-    <t>37mm</t>
-  </si>
-  <si>
-    <t>5.811mm</t>
-  </si>
-  <si>
-    <t>32.6mm</t>
-  </si>
-  <si>
-    <t>M41</t>
-  </si>
-  <si>
-    <t>SMTSO3030CTJ</t>
-  </si>
-  <si>
-    <t>SMD_BD5.6-D4.1</t>
-  </si>
-  <si>
-    <t>28mm</t>
-  </si>
-  <si>
-    <t>3.602mm</t>
-  </si>
-  <si>
-    <t>26.35mm</t>
-  </si>
-  <si>
-    <t>Plot M.2</t>
-  </si>
-  <si>
-    <t>R70</t>
-  </si>
-  <si>
-    <t>0603WAF1802T5E</t>
-  </si>
-  <si>
-    <t>R0805</t>
-  </si>
-  <si>
-    <t>24.5mm</t>
-  </si>
-  <si>
-    <t>18kΩ</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>CL05A105KA5NQNC</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C94</t>
-  </si>
-  <si>
-    <t>CL31A106KBHNNNE</t>
-  </si>
-  <si>
-    <t>C1206</t>
-  </si>
-  <si>
-    <t>-0.5mm</t>
-  </si>
-  <si>
-    <t>44.75mm</t>
-  </si>
-  <si>
-    <t>43.157mm</t>
-  </si>
-  <si>
-    <t>R58</t>
-  </si>
-  <si>
-    <t>0603WAF1001T5E</t>
-  </si>
-  <si>
-    <t>50mm</t>
-  </si>
-  <si>
-    <t>50.753mm</t>
-  </si>
-  <si>
-    <t>1kΩ</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>21.5mm</t>
-  </si>
-  <si>
-    <t>14.745mm</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>CL10B474KA8NNNC</t>
-  </si>
-  <si>
-    <t>-22.75mm</t>
-  </si>
-  <si>
-    <t>7.75mm</t>
-  </si>
-  <si>
-    <t>-22.05mm</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>5.75mm</t>
-  </si>
-  <si>
-    <t>6.45mm</t>
-  </si>
-  <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>CL21B105KBFNNNE</t>
-  </si>
-  <si>
-    <t>27.25mm</t>
-  </si>
-  <si>
-    <t>17.53mm</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>-21.5mm</t>
-  </si>
-  <si>
-    <t>19.75mm</t>
-  </si>
-  <si>
-    <t>-19.907mm</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>-5.5mm</t>
-  </si>
-  <si>
-    <t>21.657mm</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>1.907mm</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>19.907mm</t>
-  </si>
-  <si>
-    <t>C99</t>
-  </si>
-  <si>
-    <t>16.75mm</t>
-  </si>
-  <si>
-    <t>25.25mm</t>
-  </si>
-  <si>
-    <t>18.343mm</t>
-  </si>
-  <si>
-    <t>D52</t>
-  </si>
-  <si>
-    <t>BZT52C12_C173429</t>
-  </si>
-  <si>
-    <t>SOD-123_L2.7-W1.6-LS3.7-RD</t>
-  </si>
-  <si>
-    <t>22mm</t>
-  </si>
-  <si>
-    <t>37.365mm</t>
-  </si>
-  <si>
-    <t>BZT52C12</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>0603WAF100JT5E</t>
-  </si>
-  <si>
-    <t>-20.097mm</t>
-  </si>
-  <si>
-    <t>-19.343mm</t>
-  </si>
-  <si>
-    <t>10Ω</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
     <t>-7.903mm</t>
   </si>
   <si>
     <t>-8.656mm</t>
   </si>
   <si>
-    <t>R21</t>
+    <t>R27</t>
   </si>
   <si>
     <t>8.403mm</t>
@@ -1267,7 +1267,7 @@
     <t>9.156mm</t>
   </si>
   <si>
-    <t>R23</t>
+    <t>R29</t>
   </si>
   <si>
     <t>20.597mm</t>
@@ -1276,13 +1276,13 @@
     <t>19.843mm</t>
   </si>
   <si>
-    <t>R57</t>
+    <t>R17</t>
   </si>
   <si>
     <t>38.997mm</t>
   </si>
   <si>
-    <t>U55</t>
+    <t>U4</t>
   </si>
   <si>
     <t>AP63200WU-7</t>
